--- a/results/output/MCM_Table1.xlsx
+++ b/results/output/MCM_Table1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home-2/UKBB-projects/Inherited-cardiomyopathies/results/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/UKBB-projects/Inherited-cardiomyopathies/results/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE36225D-2190-7749-814C-FDC393C7F0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA165C39-81F6-604B-B68A-3E0DB897B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1280" windowWidth="38400" windowHeight="21100"/>
+    <workbookView xWindow="28800" yWindow="-2280" windowWidth="17700" windowHeight="23500"/>
   </bookViews>
   <sheets>
     <sheet name="MCM_Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="332">
   <si>
     <t>ACM</t>
   </si>
@@ -46,52 +46,58 @@
     <t>Sex = Male (%)</t>
   </si>
   <si>
-    <t>70 (43.5)</t>
-  </si>
-  <si>
-    <t>2764 (44.2)</t>
-  </si>
-  <si>
-    <t>318 (43.7)</t>
-  </si>
-  <si>
-    <t>303 (45.0)</t>
-  </si>
-  <si>
-    <t>58.00 [50.00, 63.00]</t>
-  </si>
-  <si>
-    <t>56.00 [49.00, 63.00]</t>
-  </si>
-  <si>
-    <t>58.00 [50.00, 64.00]</t>
+    <t>116 (46.6)</t>
+  </si>
+  <si>
+    <t>3764 (46.4)</t>
+  </si>
+  <si>
+    <t>336 (43.9)</t>
+  </si>
+  <si>
+    <t>489 (48.2)</t>
+  </si>
+  <si>
+    <t>57.00 [51.00, 64.00]</t>
+  </si>
+  <si>
+    <t>57.00 [49.00, 63.00]</t>
+  </si>
+  <si>
+    <t>58.00 [50.00, 63.75]</t>
+  </si>
+  <si>
+    <t>56.00 [48.00, 63.00]</t>
   </si>
   <si>
     <t>Ethnicity (%)</t>
   </si>
   <si>
-    <t>1 (0.6)</t>
-  </si>
-  <si>
-    <t>88 (1.4)</t>
-  </si>
-  <si>
-    <t>7 (1.0)</t>
-  </si>
-  <si>
-    <t>14 (2.1)</t>
-  </si>
-  <si>
-    <t>7 (4.4)</t>
-  </si>
-  <si>
-    <t>120 (1.9)</t>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>2 (0.8)</t>
+  </si>
+  <si>
+    <t>1040 (12.9)</t>
+  </si>
+  <si>
+    <t>7 (0.9)</t>
+  </si>
+  <si>
+    <t>251 (25.1)</t>
+  </si>
+  <si>
+    <t>8 (3.2)</t>
+  </si>
+  <si>
+    <t>136 (1.7)</t>
   </si>
   <si>
     <t>8 (1.1)</t>
   </si>
   <si>
-    <t>15 (2.2)</t>
+    <t>18 (1.8)</t>
   </si>
   <si>
     <t>0 (0.0)</t>
@@ -103,559 +109,607 @@
     <t>2 (0.3)</t>
   </si>
   <si>
-    <t>20 (0.3)</t>
-  </si>
-  <si>
-    <t>16 (0.3)</t>
-  </si>
-  <si>
-    <t>3 (1.9)</t>
-  </si>
-  <si>
-    <t>68 (1.1)</t>
+    <t>104 (1.3)</t>
+  </si>
+  <si>
+    <t>24 (2.4)</t>
+  </si>
+  <si>
+    <t>3 (1.2)</t>
+  </si>
+  <si>
+    <t>156 (1.9)</t>
+  </si>
+  <si>
+    <t>11 (1.4)</t>
+  </si>
+  <si>
+    <t>25 (2.5)</t>
+  </si>
+  <si>
+    <t>235 (94.8)</t>
+  </si>
+  <si>
+    <t>6588 (82.0)</t>
+  </si>
+  <si>
+    <t>731 (96.1)</t>
+  </si>
+  <si>
+    <t>681 (68.2)</t>
+  </si>
+  <si>
+    <t>BMI (median [IQR])</t>
+  </si>
+  <si>
+    <t>26.73 [24.14, 30.73]</t>
+  </si>
+  <si>
+    <t>26.80 [24.20, 29.81]</t>
+  </si>
+  <si>
+    <t>26.66 [24.05, 29.83]</t>
+  </si>
+  <si>
+    <t>26.72 [23.90, 29.79]</t>
+  </si>
+  <si>
+    <t>693.00 [297.00, 1,386.00]</t>
+  </si>
+  <si>
+    <t>594.00 [297.00, 1,386.00]</t>
+  </si>
+  <si>
+    <t>594.00 [264.00, 1,386.00]</t>
+  </si>
+  <si>
+    <t>660.00 [330.00, 1,386.00]</t>
+  </si>
+  <si>
+    <t>420.00 [120.00, 960.00]</t>
+  </si>
+  <si>
+    <t>420.00 [120.00, 1,200.00]</t>
+  </si>
+  <si>
+    <t>480.00 [120.00, 960.00]</t>
+  </si>
+  <si>
+    <t>240.00 [0.00, 720.00]</t>
+  </si>
+  <si>
+    <t>240.00 [0.00, 960.00]</t>
+  </si>
+  <si>
+    <t>160.00 [0.00, 720.00]</t>
+  </si>
+  <si>
+    <t>5.48 [4.81, 6.38]</t>
+  </si>
+  <si>
+    <t>5.63 [4.87, 6.39]</t>
+  </si>
+  <si>
+    <t>5.67 [4.92, 6.44]</t>
+  </si>
+  <si>
+    <t>5.58 [4.75, 6.34]</t>
+  </si>
+  <si>
+    <t>HDL (median [IQR])</t>
+  </si>
+  <si>
+    <t>1.36 [1.17, 1.58]</t>
+  </si>
+  <si>
+    <t>1.37 [1.16, 1.64]</t>
+  </si>
+  <si>
+    <t>1.41 [1.17, 1.64]</t>
+  </si>
+  <si>
+    <t>1.34 [1.12, 1.60]</t>
+  </si>
+  <si>
+    <t>LDL (median [IQR])</t>
+  </si>
+  <si>
+    <t>3.33 [2.86, 4.10]</t>
+  </si>
+  <si>
+    <t>3.52 [2.90, 4.11]</t>
+  </si>
+  <si>
+    <t>3.51 [2.96, 4.13]</t>
+  </si>
+  <si>
+    <t>3.47 [2.86, 4.07]</t>
+  </si>
+  <si>
+    <t>136.75 [124.38, 149.00]</t>
+  </si>
+  <si>
+    <t>135.50 [124.00, 149.00]</t>
+  </si>
+  <si>
+    <t>135.50 [123.50, 148.50]</t>
+  </si>
+  <si>
+    <t>134.00 [124.00, 147.50]</t>
+  </si>
+  <si>
+    <t>82.25 [75.50, 88.62]</t>
+  </si>
+  <si>
+    <t>82.00 [75.00, 89.00]</t>
+  </si>
+  <si>
+    <t>81.00 [75.50, 88.00]</t>
+  </si>
+  <si>
+    <t>81.50 [75.50, 88.50]</t>
+  </si>
+  <si>
+    <t>91 (36.4)</t>
+  </si>
+  <si>
+    <t>2900 (35.7)</t>
+  </si>
+  <si>
+    <t>272 (35.5)</t>
+  </si>
+  <si>
+    <t>361 (35.6)</t>
+  </si>
+  <si>
+    <t>21 (8.4)</t>
+  </si>
+  <si>
+    <t>780 (9.6)</t>
+  </si>
+  <si>
+    <t>66 (8.6)</t>
+  </si>
+  <si>
+    <t>132 (13.0)</t>
+  </si>
+  <si>
+    <t>119 (47.6)</t>
+  </si>
+  <si>
+    <t>3419 (42.1)</t>
+  </si>
+  <si>
+    <t>337 (43.9)</t>
+  </si>
+  <si>
+    <t>391 (38.5)</t>
+  </si>
+  <si>
+    <t>13 (5.2)</t>
+  </si>
+  <si>
+    <t>308 (3.8)</t>
+  </si>
+  <si>
+    <t>28 (3.7)</t>
+  </si>
+  <si>
+    <t>39 (3.8)</t>
+  </si>
+  <si>
+    <t>62 (24.8)</t>
+  </si>
+  <si>
+    <t>2064 (25.4)</t>
+  </si>
+  <si>
+    <t>203 (26.5)</t>
+  </si>
+  <si>
+    <t>288 (28.4)</t>
+  </si>
+  <si>
+    <t>130 (52.0)</t>
+  </si>
+  <si>
+    <t>3550 (43.7)</t>
+  </si>
+  <si>
+    <t>367 (47.8)</t>
+  </si>
+  <si>
+    <t>465 (45.8)</t>
+  </si>
+  <si>
+    <t>29 (0.4)</t>
+  </si>
+  <si>
+    <t>3 (0.4)</t>
+  </si>
+  <si>
+    <t>1 (0.1)</t>
+  </si>
+  <si>
+    <t>7 (2.8)</t>
+  </si>
+  <si>
+    <t>196 (2.4)</t>
+  </si>
+  <si>
+    <t>34 (4.4)</t>
+  </si>
+  <si>
+    <t>28 (0.3)</t>
+  </si>
+  <si>
+    <t>19 (2.5)</t>
+  </si>
+  <si>
+    <t>21 (2.1)</t>
+  </si>
+  <si>
+    <t>6 (0.1)</t>
+  </si>
+  <si>
+    <t>6 (0.8)</t>
+  </si>
+  <si>
+    <t>19 (1.9)</t>
+  </si>
+  <si>
+    <t>1 (0.4)</t>
+  </si>
+  <si>
+    <t>16 (0.2)</t>
+  </si>
+  <si>
+    <t>8 (1.0)</t>
+  </si>
+  <si>
+    <t>6 (2.4)</t>
+  </si>
+  <si>
+    <t>30 (0.4)</t>
   </si>
   <si>
     <t>9 (1.2)</t>
   </si>
   <si>
+    <t>5 (0.5)</t>
+  </si>
+  <si>
+    <t>143 (1.8)</t>
+  </si>
+  <si>
+    <t>26 (2.6)</t>
+  </si>
+  <si>
+    <t>24 (9.6)</t>
+  </si>
+  <si>
+    <t>626 (7.7)</t>
+  </si>
+  <si>
+    <t>57 (7.4)</t>
+  </si>
+  <si>
+    <t>72 (7.1)</t>
+  </si>
+  <si>
+    <t>12 (4.8)</t>
+  </si>
+  <si>
+    <t>275 (3.4)</t>
+  </si>
+  <si>
+    <t>24 (3.1)</t>
+  </si>
+  <si>
+    <t>30 (3.0)</t>
+  </si>
+  <si>
+    <t>33 (0.4)</t>
+  </si>
+  <si>
     <t>5 (0.7)</t>
   </si>
   <si>
-    <t>149 (93.1)</t>
-  </si>
-  <si>
-    <t>5900 (95.2)</t>
-  </si>
-  <si>
-    <t>695 (96.1)</t>
-  </si>
-  <si>
-    <t>631 (94.6)</t>
-  </si>
-  <si>
-    <t>BMI (median [IQR])</t>
-  </si>
-  <si>
-    <t>27.12 [24.09, 31.68]</t>
-  </si>
-  <si>
-    <t>26.70 [24.09, 29.95]</t>
-  </si>
-  <si>
-    <t>26.69 [24.06, 29.82]</t>
-  </si>
-  <si>
-    <t>26.76 [23.99, 29.95]</t>
-  </si>
-  <si>
-    <t>693.00 [330.00, 1,386.00]</t>
-  </si>
-  <si>
-    <t>693.00 [313.50, 1,386.00]</t>
-  </si>
-  <si>
-    <t>594.00 [264.00, 1,386.00]</t>
-  </si>
-  <si>
-    <t>480.00 [120.00, 1,200.00]</t>
-  </si>
-  <si>
-    <t>480.00 [80.00, 960.00]</t>
-  </si>
-  <si>
-    <t>480.00 [120.00, 960.00]</t>
-  </si>
-  <si>
-    <t>480.00 [160.00, 1,200.00]</t>
-  </si>
-  <si>
-    <t>240.00 [0.00, 840.00]</t>
-  </si>
-  <si>
-    <t>240.00 [0.00, 720.00]</t>
-  </si>
-  <si>
-    <t>160.00 [0.00, 720.00]</t>
-  </si>
-  <si>
-    <t>240.00 [0.00, 960.00]</t>
-  </si>
-  <si>
-    <t>5.52 [4.83, 6.52]</t>
-  </si>
-  <si>
-    <t>5.66 [4.92, 6.40]</t>
-  </si>
-  <si>
-    <t>5.66 [4.92, 6.42]</t>
-  </si>
-  <si>
-    <t>5.66 [4.87, 6.43]</t>
-  </si>
-  <si>
-    <t>HDL (median [IQR])</t>
-  </si>
-  <si>
-    <t>1.36 [1.17, 1.60]</t>
-  </si>
-  <si>
-    <t>1.41 [1.17, 1.70]</t>
-  </si>
-  <si>
-    <t>1.40 [1.17, 1.65]</t>
-  </si>
-  <si>
-    <t>1.39 [1.16, 1.68]</t>
-  </si>
-  <si>
-    <t>LDL (median [IQR])</t>
-  </si>
-  <si>
-    <t>3.29 [2.88, 4.21]</t>
-  </si>
-  <si>
-    <t>3.52 [2.95, 4.09]</t>
-  </si>
-  <si>
-    <t>3.51 [2.96, 4.12]</t>
-  </si>
-  <si>
-    <t>3.52 [2.91, 4.12]</t>
-  </si>
-  <si>
-    <t>136.00 [124.00, 150.00]</t>
-  </si>
-  <si>
-    <t>136.00 [125.00, 148.50]</t>
-  </si>
-  <si>
-    <t>135.50 [123.50, 148.50]</t>
-  </si>
-  <si>
-    <t>135.00 [124.25, 150.00]</t>
-  </si>
-  <si>
-    <t>82.00 [75.00, 89.00]</t>
-  </si>
-  <si>
-    <t>82.50 [77.00, 89.00]</t>
-  </si>
-  <si>
-    <t>81.00 [75.50, 87.75]</t>
-  </si>
-  <si>
-    <t>81.50 [75.50, 88.00]</t>
-  </si>
-  <si>
-    <t>64 (39.8)</t>
-  </si>
-  <si>
-    <t>2207 (35.3)</t>
-  </si>
-  <si>
-    <t>259 (35.6)</t>
-  </si>
-  <si>
-    <t>238 (35.4)</t>
-  </si>
-  <si>
-    <t>13 (8.1)</t>
-  </si>
-  <si>
-    <t>521 (8.3)</t>
-  </si>
-  <si>
-    <t>63 (8.7)</t>
-  </si>
-  <si>
-    <t>53 (7.9)</t>
-  </si>
-  <si>
-    <t>76 (47.2)</t>
-  </si>
-  <si>
-    <t>2734 (43.8)</t>
-  </si>
-  <si>
-    <t>322 (44.2)</t>
-  </si>
-  <si>
-    <t>289 (42.9)</t>
-  </si>
-  <si>
-    <t>7 (4.3)</t>
-  </si>
-  <si>
-    <t>228 (3.6)</t>
-  </si>
-  <si>
-    <t>27 (3.7)</t>
-  </si>
-  <si>
-    <t>28 (4.2)</t>
-  </si>
-  <si>
-    <t>161 (100.0)</t>
-  </si>
-  <si>
-    <t>6248 (100.0)</t>
-  </si>
-  <si>
-    <t>728 (100.0)</t>
-  </si>
-  <si>
-    <t>673 (100.0)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>154 (95.7)</t>
-  </si>
-  <si>
-    <t>5979 (95.7)</t>
-  </si>
-  <si>
-    <t>703 (96.6)</t>
-  </si>
-  <si>
-    <t>658 (97.8)</t>
-  </si>
-  <si>
-    <t>2 (1.2)</t>
-  </si>
-  <si>
-    <t>33 (0.5)</t>
-  </si>
-  <si>
-    <t>3 (0.4)</t>
-  </si>
-  <si>
-    <t>4 (2.5)</t>
-  </si>
-  <si>
-    <t>128 (2.0)</t>
-  </si>
-  <si>
-    <t>33 (4.5)</t>
-  </si>
-  <si>
-    <t>19 (2.8)</t>
-  </si>
-  <si>
-    <t>&lt;0.001</t>
-  </si>
-  <si>
-    <t>35 (0.6)</t>
-  </si>
-  <si>
-    <t>18 (2.5)</t>
-  </si>
-  <si>
-    <t>17 (2.5)</t>
-  </si>
-  <si>
-    <t>10 (0.2)</t>
-  </si>
-  <si>
-    <t>6 (0.8)</t>
-  </si>
-  <si>
-    <t>16 (2.4)</t>
-  </si>
-  <si>
-    <t>11 (0.2)</t>
-  </si>
-  <si>
-    <t>129 (2.1)</t>
-  </si>
-  <si>
-    <t>26 (3.6)</t>
-  </si>
-  <si>
-    <t>20 (3.0)</t>
-  </si>
-  <si>
-    <t>418 (6.7)</t>
-  </si>
-  <si>
-    <t>57 (7.8)</t>
-  </si>
-  <si>
-    <t>40 (5.9)</t>
-  </si>
-  <si>
-    <t>5 (3.1)</t>
-  </si>
-  <si>
-    <t>147 (2.4)</t>
-  </si>
-  <si>
-    <t>24 (3.3)</t>
-  </si>
-  <si>
-    <t>23 (3.4)</t>
-  </si>
-  <si>
-    <t>95 (1.5)</t>
-  </si>
-  <si>
-    <t>20 (2.7)</t>
-  </si>
-  <si>
-    <t>164 (2.6)</t>
-  </si>
-  <si>
-    <t>30 (4.1)</t>
-  </si>
-  <si>
-    <t>22 (3.3)</t>
-  </si>
-  <si>
-    <t>19 (0.3)</t>
-  </si>
-  <si>
-    <t>1 (0.1)</t>
-  </si>
-  <si>
-    <t>9 (5.6)</t>
-  </si>
-  <si>
-    <t>305 (4.9)</t>
-  </si>
-  <si>
-    <t>39 (5.4)</t>
-  </si>
-  <si>
-    <t>31 (4.6)</t>
-  </si>
-  <si>
-    <t>6 (3.7)</t>
-  </si>
-  <si>
-    <t>130 (2.1)</t>
-  </si>
-  <si>
-    <t>28 (3.8)</t>
-  </si>
-  <si>
-    <t>11 (6.8)</t>
-  </si>
-  <si>
-    <t>366 (5.9)</t>
-  </si>
-  <si>
-    <t>51 (7.0)</t>
-  </si>
-  <si>
-    <t>38 (5.6)</t>
-  </si>
-  <si>
-    <t>97.08 [88.90, 107.61]</t>
-  </si>
-  <si>
-    <t>94.16 [84.22, 103.77]</t>
-  </si>
-  <si>
-    <t>94.63 [84.49, 103.28]</t>
-  </si>
-  <si>
-    <t>93.78 [85.79, 101.95]</t>
+    <t>3 (0.3)</t>
+  </si>
+  <si>
+    <t>5 (2.0)</t>
+  </si>
+  <si>
+    <t>153 (1.9)</t>
+  </si>
+  <si>
+    <t>20 (2.6)</t>
+  </si>
+  <si>
+    <t>203 (2.5)</t>
+  </si>
+  <si>
+    <t>31 (4.0)</t>
+  </si>
+  <si>
+    <t>29 (2.9)</t>
+  </si>
+  <si>
+    <t>25 (0.3)</t>
+  </si>
+  <si>
+    <t>17 (6.8)</t>
+  </si>
+  <si>
+    <t>376 (4.6)</t>
+  </si>
+  <si>
+    <t>42 (5.5)</t>
+  </si>
+  <si>
+    <t>44 (4.3)</t>
+  </si>
+  <si>
+    <t>4 (1.6)</t>
+  </si>
+  <si>
+    <t>35 (0.4)</t>
+  </si>
+  <si>
+    <t>10 (1.3)</t>
+  </si>
+  <si>
+    <t>4 (0.4)</t>
+  </si>
+  <si>
+    <t>285 (3.5)</t>
+  </si>
+  <si>
+    <t>25 (3.3)</t>
+  </si>
+  <si>
+    <t>43 (4.2)</t>
+  </si>
+  <si>
+    <t>173 (2.1)</t>
+  </si>
+  <si>
+    <t>29 (3.8)</t>
+  </si>
+  <si>
+    <t>15 (6.0)</t>
+  </si>
+  <si>
+    <t>441 (5.4)</t>
+  </si>
+  <si>
+    <t>52 (6.8)</t>
+  </si>
+  <si>
+    <t>46 (4.5)</t>
+  </si>
+  <si>
+    <t>96.37 [86.74, 105.77]</t>
+  </si>
+  <si>
+    <t>95.19 [84.46, 104.61]</t>
+  </si>
+  <si>
+    <t>94.63 [85.47, 103.40]</t>
+  </si>
+  <si>
+    <t>95.70 [86.76, 105.53]</t>
+  </si>
+  <si>
+    <t>100.00 [94.00, 111.50]</t>
+  </si>
+  <si>
+    <t>100.00 [90.00, 110.00]</t>
+  </si>
+  <si>
+    <t>100.00 [86.00, 110.00]</t>
   </si>
   <si>
     <t>100.00 [90.00, 108.00]</t>
   </si>
   <si>
-    <t>98.00 [94.00, 109.00]</t>
-  </si>
-  <si>
-    <t>100.00 [86.00, 110.00]</t>
-  </si>
-  <si>
-    <t>101.00 [89.50, 108.00]</t>
-  </si>
-  <si>
-    <t>44.00 [32.00, 50.50]</t>
-  </si>
-  <si>
-    <t>53.00 [36.00, 65.00]</t>
-  </si>
-  <si>
-    <t>55.00 [42.00, 61.00]</t>
-  </si>
-  <si>
-    <t>55.00 [35.00, 63.00]</t>
-  </si>
-  <si>
-    <t>162.00 [146.00, 178.00]</t>
-  </si>
-  <si>
-    <t>164.00 [120.00, 178.00]</t>
-  </si>
-  <si>
-    <t>164.00 [150.00, 176.00]</t>
-  </si>
-  <si>
-    <t>162.00 [144.00, 172.00]</t>
-  </si>
-  <si>
-    <t>86.00 [80.00, 94.00]</t>
-  </si>
-  <si>
-    <t>88.00 [80.00, 97.00]</t>
+    <t>52.50 [43.75, 59.00]</t>
+  </si>
+  <si>
+    <t>52.00 [37.00, 65.00]</t>
+  </si>
+  <si>
+    <t>55.00 [41.25, 61.75]</t>
+  </si>
+  <si>
+    <t>53.00 [35.25, 62.75]</t>
+  </si>
+  <si>
+    <t>170.00 [121.00, 181.00]</t>
+  </si>
+  <si>
+    <t>160.00 [146.00, 176.00]</t>
+  </si>
+  <si>
+    <t>164.00 [146.50, 176.00]</t>
+  </si>
+  <si>
+    <t>160.00 [146.00, 171.50]</t>
+  </si>
+  <si>
+    <t>88.00 [80.00, 96.50]</t>
+  </si>
+  <si>
+    <t>88.00 [80.00, 96.00]</t>
+  </si>
+  <si>
+    <t>84.00 [80.00, 90.00]</t>
   </si>
   <si>
     <t>84.00 [80.00, 92.00]</t>
   </si>
   <si>
-    <t>85.00 [80.50, 92.00]</t>
-  </si>
-  <si>
-    <t>50.00 [4.00, 54.50]</t>
-  </si>
-  <si>
-    <t>31.00 [5.25, 56.00]</t>
-  </si>
-  <si>
-    <t>26.00 [1.25, 49.25]</t>
-  </si>
-  <si>
-    <t>40.50 [10.75, 54.00]</t>
-  </si>
-  <si>
-    <t>418.00 [403.00, 436.50]</t>
-  </si>
-  <si>
-    <t>419.00 [404.00, 434.00]</t>
-  </si>
-  <si>
-    <t>418.00 [408.00, 434.25]</t>
-  </si>
-  <si>
-    <t>413.00 [400.50, 422.75]</t>
-  </si>
-  <si>
-    <t>47.00 [31.00, 61.50]</t>
-  </si>
-  <si>
-    <t>38.00 [19.00, 53.00]</t>
-  </si>
-  <si>
-    <t>42.00 [28.00, 61.00]</t>
-  </si>
-  <si>
-    <t>45.00 [30.25, 60.00]</t>
+    <t>17.00 [-10.50, 50.00]</t>
+  </si>
+  <si>
+    <t>28.00 [3.00, 53.00]</t>
+  </si>
+  <si>
+    <t>24.00 [-2.50, 48.25]</t>
+  </si>
+  <si>
+    <t>41.00 [13.00, 54.00]</t>
+  </si>
+  <si>
+    <t>433.50 [403.75, 438.25]</t>
+  </si>
+  <si>
+    <t>418.00 [404.00, 436.00]</t>
+  </si>
+  <si>
+    <t>418.00 [408.00, 433.00]</t>
+  </si>
+  <si>
+    <t>413.00 [402.00, 424.50]</t>
+  </si>
+  <si>
+    <t>29.50 [19.50, 49.00]</t>
+  </si>
+  <si>
+    <t>38.00 [19.00, 57.00]</t>
+  </si>
+  <si>
+    <t>41.50 [28.00, 61.00]</t>
+  </si>
+  <si>
+    <t>43.50 [30.75, 60.00]</t>
   </si>
   <si>
     <t>RVEDVi (median [IQR])</t>
   </si>
   <si>
-    <t>82.31 [78.56, 90.93]</t>
-  </si>
-  <si>
-    <t>82.01 [71.73, 93.80]</t>
-  </si>
-  <si>
-    <t>76.82 [68.07, 88.67]</t>
-  </si>
-  <si>
-    <t>78.71 [68.63, 96.14]</t>
+    <t>79.86 [74.23, 86.07]</t>
+  </si>
+  <si>
+    <t>81.22 [70.22, 92.51]</t>
+  </si>
+  <si>
+    <t>77.17 [68.44, 89.17]</t>
+  </si>
+  <si>
+    <t>77.17 [67.87, 92.05]</t>
   </si>
   <si>
     <t>RVEF (median [IQR])</t>
   </si>
   <si>
-    <t>57.28 [53.01, 60.27]</t>
-  </si>
-  <si>
-    <t>57.73 [53.29, 61.37]</t>
-  </si>
-  <si>
-    <t>59.73 [53.75, 63.64]</t>
-  </si>
-  <si>
-    <t>59.65 [55.70, 64.88]</t>
+    <t>57.07 [52.42, 61.07]</t>
+  </si>
+  <si>
+    <t>57.54 [53.57, 61.82]</t>
+  </si>
+  <si>
+    <t>59.99 [53.59, 63.67]</t>
+  </si>
+  <si>
+    <t>59.41 [53.27, 64.05]</t>
   </si>
   <si>
     <t>RVESVi (median [IQR])</t>
   </si>
   <si>
-    <t>37.64 [32.26, 42.33]</t>
-  </si>
-  <si>
-    <t>34.66 [28.60, 42.19]</t>
-  </si>
-  <si>
-    <t>31.88 [26.60, 37.68]</t>
-  </si>
-  <si>
-    <t>31.18 [27.12, 39.21]</t>
+    <t>34.39 [31.27, 42.41]</t>
+  </si>
+  <si>
+    <t>34.09 [28.07, 40.82]</t>
+  </si>
+  <si>
+    <t>31.47 [26.75, 37.70]</t>
+  </si>
+  <si>
+    <t>31.64 [27.11, 38.10]</t>
   </si>
   <si>
     <t>RVPAFR (median [IQR])</t>
   </si>
   <si>
-    <t>312.95 [224.62, 390.99]</t>
-  </si>
-  <si>
-    <t>283.68 [226.42, 357.01]</t>
-  </si>
-  <si>
-    <t>295.97 [220.28, 362.44]</t>
-  </si>
-  <si>
-    <t>302.26 [246.61, 367.73]</t>
+    <t>293.08 [218.29, 367.25]</t>
+  </si>
+  <si>
+    <t>287.66 [226.79, 353.86]</t>
+  </si>
+  <si>
+    <t>294.63 [216.46, 360.97]</t>
+  </si>
+  <si>
+    <t>297.42 [220.93, 357.26]</t>
   </si>
   <si>
     <t>RVPER (median [IQR])</t>
   </si>
   <si>
-    <t>405.50 [322.54, 467.08]</t>
-  </si>
-  <si>
-    <t>396.35 [329.86, 475.60]</t>
-  </si>
-  <si>
-    <t>375.86 [291.44, 478.54]</t>
-  </si>
-  <si>
-    <t>419.31 [339.39, 482.74]</t>
+    <t>403.14 [310.25, 467.94]</t>
+  </si>
+  <si>
+    <t>390.43 [332.09, 464.99]</t>
+  </si>
+  <si>
+    <t>372.41 [296.72, 477.90]</t>
+  </si>
+  <si>
+    <t>387.57 [314.05, 476.45]</t>
   </si>
   <si>
     <t>RVPFR (median [IQR])</t>
   </si>
   <si>
-    <t>319.02 [191.20, 348.33]</t>
-  </si>
-  <si>
-    <t>304.67 [250.59, 373.00]</t>
-  </si>
-  <si>
-    <t>296.74 [224.80, 355.39]</t>
-  </si>
-  <si>
-    <t>316.12 [245.37, 367.79]</t>
+    <t>243.30 [196.98, 347.44]</t>
+  </si>
+  <si>
+    <t>301.44 [236.95, 363.52]</t>
+  </si>
+  <si>
+    <t>298.98 [224.05, 351.02]</t>
+  </si>
+  <si>
+    <t>298.98 [238.47, 357.61]</t>
   </si>
   <si>
     <t>RVSV (median [IQR])</t>
   </si>
   <si>
-    <t>82.52 [71.89, 112.63]</t>
-  </si>
-  <si>
-    <t>89.03 [75.14, 103.07]</t>
-  </si>
-  <si>
-    <t>80.73 [67.70, 100.69]</t>
-  </si>
-  <si>
-    <t>93.37 [72.06, 114.34]</t>
-  </si>
-  <si>
-    <t>0.94 [0.87, 1.01]</t>
-  </si>
-  <si>
-    <t>0.96 [0.91, 1.03]</t>
+    <t>82.26 [70.45, 96.51]</t>
+  </si>
+  <si>
+    <t>87.53 [74.09, 101.63]</t>
+  </si>
+  <si>
+    <t>82.85 [67.94, 101.14]</t>
+  </si>
+  <si>
+    <t>88.06 [68.04, 106.70]</t>
+  </si>
+  <si>
+    <t>RVSVi (median [IQR])</t>
+  </si>
+  <si>
+    <t>45.08 [39.74, 51.20]</t>
+  </si>
+  <si>
+    <t>46.82 [41.03, 52.65]</t>
+  </si>
+  <si>
+    <t>44.64 [40.11, 52.73]</t>
+  </si>
+  <si>
+    <t>46.06 [40.55, 54.57]</t>
+  </si>
+  <si>
+    <t>0.94 [0.90, 1.03]</t>
+  </si>
+  <si>
+    <t>0.94 [0.86, 1.01]</t>
   </si>
   <si>
     <t>0.96 [0.89, 1.04]</t>
@@ -664,138 +718,189 @@
     <t>0.94 [0.86, 0.99]</t>
   </si>
   <si>
-    <t>0.55 [0.50, 0.62]</t>
-  </si>
-  <si>
-    <t>0.54 [0.48, 0.60]</t>
-  </si>
-  <si>
-    <t>0.56 [0.50, 0.63]</t>
+    <t>0.55 [0.51, 0.61]</t>
+  </si>
+  <si>
+    <t>0.56 [0.51, 0.63]</t>
+  </si>
+  <si>
+    <t>0.54 [0.49, 0.59]</t>
+  </si>
+  <si>
+    <t>0.56 [0.50, 0.64]</t>
   </si>
   <si>
     <t>LVEDMi (median [IQR])</t>
   </si>
   <si>
-    <t>46.01 [40.00, 47.14]</t>
-  </si>
-  <si>
-    <t>43.13 [37.41, 49.03]</t>
-  </si>
-  <si>
-    <t>42.92 [34.92, 49.06]</t>
-  </si>
-  <si>
-    <t>44.88 [37.10, 50.29]</t>
+    <t>42.01 [37.15, 46.75]</t>
+  </si>
+  <si>
+    <t>43.06 [36.91, 50.23]</t>
+  </si>
+  <si>
+    <t>43.36 [35.43, 48.99]</t>
+  </si>
+  <si>
+    <t>43.35 [35.52, 49.34]</t>
   </si>
   <si>
     <t>LVEDVi (median [IQR])</t>
   </si>
   <si>
-    <t>84.67 [76.95, 87.51]</t>
-  </si>
-  <si>
-    <t>77.25 [68.15, 85.88]</t>
-  </si>
-  <si>
-    <t>76.59 [65.27, 86.65]</t>
-  </si>
-  <si>
-    <t>79.44 [67.04, 87.04]</t>
+    <t>80.19 [72.60, 87.08]</t>
+  </si>
+  <si>
+    <t>75.38 [66.95, 85.72]</t>
+  </si>
+  <si>
+    <t>77.10 [65.58, 86.63]</t>
+  </si>
+  <si>
+    <t>75.13 [64.86, 86.54]</t>
   </si>
   <si>
     <t>LVEF (median [IQR])</t>
   </si>
   <si>
-    <t>57.05 [55.08, 58.50]</t>
-  </si>
-  <si>
-    <t>58.68 [54.86, 63.08]</t>
-  </si>
-  <si>
-    <t>58.90 [53.81, 64.18]</t>
-  </si>
-  <si>
-    <t>59.64 [55.97, 63.95]</t>
+    <t>58.11 [55.99, 65.31]</t>
+  </si>
+  <si>
+    <t>59.42 [55.29, 62.98]</t>
+  </si>
+  <si>
+    <t>59.29 [54.23, 64.35]</t>
+  </si>
+  <si>
+    <t>59.55 [56.26, 63.66]</t>
   </si>
   <si>
     <t>LVESVi (median [IQR])</t>
   </si>
   <si>
-    <t>34.98 [32.03, 37.68]</t>
-  </si>
-  <si>
-    <t>31.52 [26.17, 37.18]</t>
-  </si>
-  <si>
-    <t>30.99 [25.29, 37.70]</t>
-  </si>
-  <si>
-    <t>31.61 [24.56, 36.84]</t>
+    <t>32.32 [27.87, 36.69]</t>
+  </si>
+  <si>
+    <t>30.44 [25.72, 36.34]</t>
+  </si>
+  <si>
+    <t>31.12 [25.38, 37.54]</t>
+  </si>
+  <si>
+    <t>28.71 [23.98, 35.60]</t>
   </si>
   <si>
     <t>LVPAFR (median [IQR])</t>
   </si>
   <si>
-    <t>221.63 [147.26, 300.29]</t>
-  </si>
-  <si>
-    <t>234.48 [174.46, 317.80]</t>
-  </si>
-  <si>
-    <t>265.04 [172.09, 347.19]</t>
-  </si>
-  <si>
-    <t>240.86 [163.35, 314.58]</t>
+    <t>211.19 [153.61, 271.38]</t>
+  </si>
+  <si>
+    <t>233.06 [164.77, 309.27]</t>
+  </si>
+  <si>
+    <t>254.63 [172.46, 347.05]</t>
+  </si>
+  <si>
+    <t>220.27 [155.40, 294.93]</t>
   </si>
   <si>
     <t>LVPER (median [IQR])</t>
   </si>
   <si>
-    <t>365.09 [286.20, 475.80]</t>
-  </si>
-  <si>
-    <t>383.71 [312.64, 456.75]</t>
-  </si>
-  <si>
-    <t>344.01 [286.25, 469.48]</t>
-  </si>
-  <si>
-    <t>378.36 [301.86, 491.32]</t>
+    <t>356.36 [297.03, 450.05]</t>
+  </si>
+  <si>
+    <t>381.11 [312.16, 456.01]</t>
+  </si>
+  <si>
+    <t>343.13 [286.79, 460.89]</t>
+  </si>
+  <si>
+    <t>355.68 [286.28, 461.50]</t>
   </si>
   <si>
     <t>LVPFR (median [IQR])</t>
   </si>
   <si>
-    <t>362.39 [312.12, 411.27]</t>
-  </si>
-  <si>
-    <t>319.81 [255.80, 389.75]</t>
-  </si>
-  <si>
-    <t>298.42 [238.34, 376.27]</t>
-  </si>
-  <si>
-    <t>335.30 [263.25, 390.90]</t>
+    <t>359.47 [277.49, 393.30]</t>
+  </si>
+  <si>
+    <t>332.06 [266.34, 391.32]</t>
+  </si>
+  <si>
+    <t>307.05 [240.21, 374.06]</t>
+  </si>
+  <si>
+    <t>321.99 [258.76, 368.13]</t>
   </si>
   <si>
     <t>LVSV (median [IQR])</t>
   </si>
   <si>
-    <t>92.45 [75.55, 105.95]</t>
-  </si>
-  <si>
-    <t>84.27 [73.17, 98.01]</t>
-  </si>
-  <si>
-    <t>81.67 [65.91, 99.34]</t>
-  </si>
-  <si>
-    <t>90.71 [74.82, 101.59]</t>
+    <t>83.59 [75.23, 104.70]</t>
+  </si>
+  <si>
+    <t>82.97 [71.48, 97.62]</t>
+  </si>
+  <si>
+    <t>83.75 [68.12, 99.11]</t>
+  </si>
+  <si>
+    <t>83.41 [67.33, 100.15]</t>
+  </si>
+  <si>
+    <t>LVSVi (median [IQR])</t>
+  </si>
+  <si>
+    <t>45.87 [42.18, 50.22]</t>
+  </si>
+  <si>
+    <t>44.40 [39.12, 50.47]</t>
+  </si>
+  <si>
+    <t>45.80 [38.13, 50.36]</t>
+  </si>
+  <si>
+    <t>44.99 [39.56, 50.19]</t>
   </si>
   <si>
     <t>Age (median [IQR])</t>
   </si>
   <si>
+    <t xml:space="preserve">  Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  White</t>
+  </si>
+  <si>
+    <t>CARDIOVASCULAR RISK FACTORS</t>
+  </si>
+  <si>
+    <t>Ever Smoked (%)</t>
+  </si>
+  <si>
+    <t>MET minutes per week for walking (median [IQR])</t>
+  </si>
+  <si>
+    <t>MET minutes per week for moderate activity (median [IQR])</t>
+  </si>
+  <si>
+    <t>MET minutes per week for vigorous activity (median [IQR])</t>
+  </si>
+  <si>
     <t>Total Cholesterol (median [IQR])</t>
   </si>
   <si>
@@ -805,123 +910,96 @@
     <t>Diastolic blood pressure mean (median [IQR])</t>
   </si>
   <si>
+    <t>Hypertension (%)</t>
+  </si>
+  <si>
+    <t>Hypercholesterolaemia (%)</t>
+  </si>
+  <si>
+    <t>DIAGNOSES</t>
+  </si>
+  <si>
+    <t>Obesity (%)</t>
+  </si>
+  <si>
+    <t>Diabetes (%)</t>
+  </si>
+  <si>
+    <t>Family Heart Disease (%)</t>
+  </si>
+  <si>
+    <t>Cardiac Problem (%)</t>
+  </si>
+  <si>
+    <t>Heart Failure (%)</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy (%)</t>
+  </si>
+  <si>
+    <t>HCM (%)</t>
+  </si>
+  <si>
+    <t>DCM (%)</t>
+  </si>
+  <si>
+    <t>Ventricular arrhythmias (%)</t>
+  </si>
+  <si>
+    <t>Atrial arrhythmias (%)</t>
+  </si>
+  <si>
+    <t>Chronic ischaemic heart disease (%)</t>
+  </si>
+  <si>
+    <t>Acute Myocardial infarction (%)</t>
+  </si>
+  <si>
+    <t>Cardiac arrest (%)</t>
+  </si>
+  <si>
+    <t>Conduction disorders (%)</t>
+  </si>
+  <si>
+    <t>Valvular disease (%)</t>
+  </si>
+  <si>
+    <t>Congenital heart disease (%)</t>
+  </si>
+  <si>
+    <t>Pulmonary obstructive disease (%)</t>
+  </si>
+  <si>
+    <t>Heart_Arrhythmia (%)</t>
+  </si>
+  <si>
+    <t>Angina (%)</t>
+  </si>
+  <si>
+    <t>Cardiovascular Death (%)</t>
+  </si>
+  <si>
+    <t>All cause mortality (%)</t>
+  </si>
+  <si>
+    <t>ECG MEASUREMENTS</t>
+  </si>
+  <si>
+    <t>Heart rate (median [IQR])</t>
+  </si>
+  <si>
     <t>P duration (median [IQR])</t>
   </si>
   <si>
+    <t>P axis (median [IQR])</t>
+  </si>
+  <si>
+    <t>PQ interval (median [IQR])</t>
+  </si>
+  <si>
     <t>QRS duration (median [IQR])</t>
   </si>
   <si>
-    <t xml:space="preserve">  Asian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Chinese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  White</t>
-  </si>
-  <si>
-    <t>CARDIOVASCULAR RISK FACTORS</t>
-  </si>
-  <si>
-    <t>MET minutes per week for walking (median [IQR])</t>
-  </si>
-  <si>
-    <t>MET minutes per week for moderate activity (median [IQR])</t>
-  </si>
-  <si>
-    <t>MET minutes per week for vigorous activity (median [IQR])</t>
-  </si>
-  <si>
-    <t>DIAGNOSES</t>
-  </si>
-  <si>
-    <t>Hypertension (%)</t>
-  </si>
-  <si>
-    <t>Diabetes (%)</t>
-  </si>
-  <si>
-    <t>Ever Smoked (%)</t>
-  </si>
-  <si>
-    <t>Obesity (%)</t>
-  </si>
-  <si>
-    <t>Hypercholesterolaemia (%)</t>
-  </si>
-  <si>
-    <t>Family Heart Disease (%)</t>
-  </si>
-  <si>
-    <t>Cardiac Problem (%)</t>
-  </si>
-  <si>
-    <t>Heart Failure (%)</t>
-  </si>
-  <si>
-    <t>Cardiomyopathy (%)</t>
-  </si>
-  <si>
-    <t>HCM (%)</t>
-  </si>
-  <si>
-    <t>DCM (%)</t>
-  </si>
-  <si>
-    <t>Ventricular arrhythmias (%)</t>
-  </si>
-  <si>
-    <t>Atrial arrhythmias (%)</t>
-  </si>
-  <si>
-    <t>Chronic ischaemic heart disease (%)</t>
-  </si>
-  <si>
-    <t>Acute Myocardial infarction (%)</t>
-  </si>
-  <si>
-    <t>Cardiac arrest (%)</t>
-  </si>
-  <si>
-    <t>Conduction disorders (%)</t>
-  </si>
-  <si>
-    <t>Valvular disease (%)</t>
-  </si>
-  <si>
-    <t>Congenital heart disease (%)</t>
-  </si>
-  <si>
-    <t>Pulmonary obstructive disease (%)</t>
-  </si>
-  <si>
-    <t>Cardiovascular Death (%)</t>
-  </si>
-  <si>
-    <t>All cause mortality (%)</t>
-  </si>
-  <si>
-    <t>ECG MEASUREMENTS</t>
-  </si>
-  <si>
-    <t>Heart rate (median [IQR])</t>
-  </si>
-  <si>
-    <t>P axis (median [IQR])</t>
-  </si>
-  <si>
-    <t>PQ interval (median [IQR])</t>
-  </si>
-  <si>
     <t>R axis (median [IQR])</t>
   </si>
   <si>
@@ -931,13 +1009,13 @@
     <t>T axis (median [IQR])</t>
   </si>
   <si>
+    <t>LVMVR (median [IQR])</t>
+  </si>
+  <si>
+    <t>LVEDV/RVEDV (median [IQR])</t>
+  </si>
+  <si>
     <t>MRI MEASUREMENTS</t>
-  </si>
-  <si>
-    <t>LVMVR (median [IQR])</t>
-  </si>
-  <si>
-    <t>LVEDV/RVEDV (median [IQR])</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1503,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1781,15 +1861,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B1:G1 B11"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1814,20 +1897,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>6248</v>
+        <v>8116</v>
       </c>
       <c r="C2">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>728</v>
-      </c>
-      <c r="E2">
-        <v>673</v>
+        <v>767</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1015</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>0.96099999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1855,22 +1938,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>0.56100000000000005</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1878,396 +1961,393 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0.35499999999999998</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>263</v>
+      <c r="A6" t="s">
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>264</v>
+      <c r="A7" t="s">
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>265</v>
+      <c r="A8" t="s">
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>266</v>
+      <c r="A9" t="s">
+        <v>285</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>267</v>
+      <c r="A10" t="s">
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>268</v>
+      <c r="A11" t="s">
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
+      <c r="A14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>0.59799999999999998</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>276</v>
+      <c r="A15" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>0.79700000000000004</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>270</v>
+      <c r="A16" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>0.26</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="G16">
-        <v>19.7</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>271</v>
+      <c r="A17" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>0.25800000000000001</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="G17">
-        <v>19.7</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>272</v>
+      <c r="A18" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18">
-        <v>0.49299999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="G18">
-        <v>19.7</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>258</v>
+      <c r="A19" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19">
-        <v>0.84499999999999997</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G19">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G20">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G21">
         <v>4.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="G20">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>259</v>
+      <c r="A22" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22">
-        <v>0.63100000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="G22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>260</v>
+      <c r="A23" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23">
-        <v>0.40500000000000003</v>
+        <v>0.504</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>274</v>
+      <c r="A24" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24">
-        <v>0.71699999999999997</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>278</v>
+      <c r="A25" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
         <v>95</v>
+      </c>
+      <c r="F25">
+        <v>0.221</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2275,58 +2355,58 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>277</v>
+      <c r="A28" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28">
-        <v>0.89</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>275</v>
+      <c r="A29" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F29">
-        <v>0.96099999999999997</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>279</v>
+      <c r="A30" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -2341,38 +2421,38 @@
         <v>99</v>
       </c>
       <c r="F30">
-        <v>5.6000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>280</v>
+      <c r="A31" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
       <c r="F31">
-        <v>0.13900000000000001</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>281</v>
+      <c r="A32" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="B32" t="s">
         <v>104</v>
@@ -2384,920 +2464,1012 @@
         <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>282</v>
+      <c r="A33" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>283</v>
+      <c r="A34" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" t="s">
-        <v>113</v>
-      </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>284</v>
+      <c r="A35" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
         <v>114</v>
       </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>285</v>
+      <c r="A36" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>286</v>
+      <c r="A37" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F37">
-        <v>2.9000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>287</v>
+      <c r="A38" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F38">
-        <v>0.47099999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>288</v>
+      <c r="A39" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F39">
-        <v>0.183</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>289</v>
+      <c r="A40" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="F40">
-        <v>0.36399999999999999</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>290</v>
+      <c r="A41" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F41">
-        <v>8.5000000000000006E-2</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>291</v>
+      <c r="A42" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F42">
-        <v>6.0999999999999999E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>292</v>
+      <c r="A43" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F43">
-        <v>0.375</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>293</v>
+      <c r="A44" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F44">
-        <v>0.89300000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>294</v>
+      <c r="A45" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F45">
-        <v>1.2999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>295</v>
+      <c r="A46" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F46">
-        <v>0.6</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49">
-        <v>0.313</v>
-      </c>
-      <c r="G49">
-        <v>74.8</v>
+      <c r="A48" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48">
+        <v>0.218</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="G50">
-        <v>89.5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>298</v>
+      <c r="A51" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F51">
-        <v>0.67500000000000004</v>
+        <v>0.504</v>
       </c>
       <c r="G51">
-        <v>92.6</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>299</v>
+      <c r="A52" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F52">
-        <v>0.80800000000000005</v>
+        <v>0.878</v>
       </c>
       <c r="G52">
-        <v>92.6</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>262</v>
+      <c r="A53" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F53">
-        <v>0.33400000000000002</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="G53">
-        <v>88.9</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>300</v>
+      <c r="A54" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F54">
-        <v>0.69099999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="G54">
-        <v>92.3</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>301</v>
+      <c r="A55" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F55">
-        <v>0.34</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="G55">
-        <v>92.3</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>302</v>
+      <c r="A56" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F56">
-        <v>3.4000000000000002E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G56">
-        <v>92.3</v>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57">
+        <v>0.309</v>
+      </c>
+      <c r="G57">
+        <v>92.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="G59">
-        <v>89.9</v>
+      <c r="A58" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58">
+        <v>0.08</v>
+      </c>
+      <c r="G58">
+        <v>92.5</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B60" t="s">
-        <v>187</v>
-      </c>
-      <c r="C60" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E60" t="s">
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
         <v>189</v>
       </c>
-      <c r="F60">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G60">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="D61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61">
+        <v>0.215</v>
+      </c>
+      <c r="G61">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G62">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G63">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64">
+        <v>0.747</v>
+      </c>
+      <c r="G64">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65">
+        <v>0.02</v>
+      </c>
+      <c r="G65">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G66">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G67">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
         <v>205</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
         <v>207</v>
       </c>
-      <c r="C61" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G61">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" t="s">
-        <v>184</v>
-      </c>
-      <c r="F62">
-        <v>1E-3</v>
-      </c>
-      <c r="G62">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" t="s">
-        <v>198</v>
-      </c>
-      <c r="E63" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G63">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="G64">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="G65">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B66" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" t="s">
-        <v>225</v>
-      </c>
-      <c r="E66" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="G66">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="F68">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G68">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" t="s">
+        <v>245</v>
+      </c>
+      <c r="F69">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G69">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="G70">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>275</v>
+      </c>
+      <c r="F71">
+        <v>0.89</v>
+      </c>
+      <c r="G71">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G72">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G73">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G74">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G75">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76">
+        <v>0.501</v>
+      </c>
+      <c r="G76">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" t="s">
+        <v>240</v>
+      </c>
+      <c r="F77">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G77">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" t="s">
         <v>232</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D78" t="s">
         <v>234</v>
       </c>
-      <c r="C67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E78" t="s">
         <v>235</v>
       </c>
-      <c r="E67" t="s">
-        <v>236</v>
-      </c>
-      <c r="F67">
-        <v>0.378</v>
-      </c>
-      <c r="G67">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" t="s">
-        <v>255</v>
-      </c>
-      <c r="E68" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G68">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="F78">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G78">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" t="s">
         <v>229</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C79" t="s">
         <v>228</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D79" t="s">
         <v>230</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E79" t="s">
         <v>231</v>
       </c>
-      <c r="F69">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="G69">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" t="s">
-        <v>245</v>
-      </c>
-      <c r="E70" t="s">
-        <v>246</v>
-      </c>
-      <c r="F70">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="G70">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B71" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" t="s">
-        <v>250</v>
-      </c>
-      <c r="E71" t="s">
-        <v>251</v>
-      </c>
-      <c r="F71">
-        <v>0.2</v>
-      </c>
-      <c r="G71">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="G72">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" t="s">
-        <v>221</v>
-      </c>
-      <c r="F73">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G73">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="G74">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="G75">
-        <v>91.2</v>
+      <c r="F79">
+        <v>0.09</v>
+      </c>
+      <c r="G79">
+        <v>91.6</v>
       </c>
     </row>
   </sheetData>
